--- a/local_data/results/TableS3.xlsx
+++ b/local_data/results/TableS3.xlsx
@@ -62,9 +62,6 @@
     <t>Fatty acid degradation</t>
   </si>
   <si>
-    <t>Synthesis and degradation of ketone bodies</t>
-  </si>
-  <si>
     <t>Steroid biosynthesis</t>
   </si>
   <si>
@@ -218,7 +215,7 @@
     <t>Retinol metabolism</t>
   </si>
   <si>
-    <t>Porphyrin and chlorophyll metabolism</t>
+    <t>Porphyrin metabolism</t>
   </si>
   <si>
     <t>Terpenoid backbone biosynthesis</t>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Growth hormone synthesis, secretion and action</t>
+  </si>
+  <si>
+    <t>Alcoholic liver disease</t>
   </si>
   <si>
     <t>Type I diabetes mellitus</t>
@@ -1374,7 +1374,7 @@
         <v>0.9256244778846955</v>
       </c>
       <c r="E2">
-        <v>0.01170389094407937</v>
+        <v>0.01155939846328827</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.4124852735245456</v>
+        <v>0.4145685324817402</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.09362972835557769</v>
+        <v>0.09442998244408689</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.07958114085752249</v>
+        <v>0.08028539874121739</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.05878011025372803</v>
+        <v>0.0593620915433689</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.2243894056465063</v>
+        <v>0.2258006597700692</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1535,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.009288632751540349</v>
+        <v>0.1681761316606143</v>
       </c>
       <c r="C12" t="s">
         <v>315</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.03031027529450009</v>
+        <v>0.2962193228113092</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.1681761316606143</v>
+        <v>0.5313060652114676</v>
       </c>
       <c r="C13" t="s">
         <v>315</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.2945457673152002</v>
+        <v>0.6834227394836305</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1569,16 +1569,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.5313060652114676</v>
+        <v>0.5094980669642484</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.6834227394836305</v>
+        <v>0.6664320707127299</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1586,16 +1586,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.5094980669642484</v>
+        <v>0.003020358953310805</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9363112755263495</v>
       </c>
       <c r="E15">
-        <v>0.6664320707127299</v>
+        <v>0.01155939846328827</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1603,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.003020358953310805</v>
+        <v>2.942354078766587E-21</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D16">
-        <v>0.9363112755263495</v>
+        <v>9.12129764417642E-19</v>
       </c>
       <c r="E16">
-        <v>0.01170389094407937</v>
+        <v>1.520216274029404E-19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1620,16 +1620,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>2.942354078766587E-21</v>
+        <v>0.002922656952950087</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17">
-        <v>9.12129764417642E-19</v>
+        <v>0.9060236554145271</v>
       </c>
       <c r="E17">
-        <v>1.520216274029404E-19</v>
+        <v>0.01146865386600667</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1637,16 +1637,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.002922656952950087</v>
+        <v>9.267648894639918E-06</v>
       </c>
       <c r="C18" t="s">
         <v>315</v>
       </c>
       <c r="D18">
-        <v>0.9060236554145271</v>
+        <v>0.002872971157338375</v>
       </c>
       <c r="E18">
-        <v>0.01161568788992984</v>
+        <v>8.705973204055682E-05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1654,16 +1654,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1.268064926041885E-05</v>
+        <v>0.002654898662274108</v>
       </c>
       <c r="C19" t="s">
         <v>315</v>
       </c>
       <c r="D19">
-        <v>0.003931001270729843</v>
+        <v>0.8230185853049734</v>
       </c>
       <c r="E19">
-        <v>0.0001156176844332307</v>
+        <v>0.01097358113739965</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1671,16 +1671,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.003959094025651069</v>
+        <v>0.0008972676452168901</v>
       </c>
       <c r="C20" t="s">
         <v>315</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.2781529700172359</v>
       </c>
       <c r="E20">
-        <v>0.01496730668233941</v>
+        <v>0.004415126508210094</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1688,16 +1688,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0008972676452168901</v>
+        <v>0.00109353431543797</v>
       </c>
       <c r="C21" t="s">
         <v>315</v>
       </c>
       <c r="D21">
-        <v>0.2781529700172359</v>
+        <v>0.3389956377857706</v>
       </c>
       <c r="E21">
-        <v>0.004415126508210094</v>
+        <v>0.005152348489082704</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1705,16 +1705,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.00109353431543797</v>
+        <v>0.004976550600417746</v>
       </c>
       <c r="C22" t="s">
         <v>315</v>
       </c>
       <c r="D22">
-        <v>0.3389956377857706</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.005152348489082704</v>
+        <v>0.01814977277799413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1722,16 +1722,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004976550600417746</v>
+        <v>0.0003294608714799442</v>
       </c>
       <c r="C23" t="s">
         <v>315</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.1021328701587827</v>
       </c>
       <c r="E23">
-        <v>0.01814977277799413</v>
+        <v>0.002084344288954749</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1739,16 +1739,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0003294608714799442</v>
+        <v>0.0216828524937065</v>
       </c>
       <c r="C24" t="s">
         <v>315</v>
       </c>
       <c r="D24">
-        <v>0.1021328701587827</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.002084344288954749</v>
+        <v>0.06341211578348127</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1756,16 +1756,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0216828524937065</v>
+        <v>2.499651402049828E-05</v>
       </c>
       <c r="C25" t="s">
         <v>315</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.007748919346354466</v>
       </c>
       <c r="E25">
-        <v>0.06281947918737397</v>
+        <v>0.0002152477596209574</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1773,13 +1773,13 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2.499651402049828E-05</v>
+        <v>2.433422056372342E-05</v>
       </c>
       <c r="C26" t="s">
         <v>315</v>
       </c>
       <c r="D26">
-        <v>0.007748919346354466</v>
+        <v>0.007543608374754262</v>
       </c>
       <c r="E26">
         <v>0.0002152477596209574</v>
@@ -1790,16 +1790,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2.433422056372342E-05</v>
+        <v>0.04933803805365942</v>
       </c>
       <c r="C27" t="s">
         <v>315</v>
       </c>
       <c r="D27">
-        <v>0.007543608374754262</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0.0002152477596209574</v>
+        <v>0.1194905609112064</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1807,7 +1807,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.04933803805365942</v>
+        <v>0.2019274175785423</v>
       </c>
       <c r="C28" t="s">
         <v>315</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.1185642774932901</v>
+        <v>0.3365456959642371</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1824,16 +1824,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.2019274175785423</v>
+        <v>0.0002348655483915414</v>
       </c>
       <c r="C29" t="s">
         <v>315</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.07280832000137784</v>
       </c>
       <c r="E29">
-        <v>0.3347459863601502</v>
+        <v>0.00165473454548586</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1841,16 +1841,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0002348655483915414</v>
+        <v>0.0002531090397432533</v>
       </c>
       <c r="C30" t="s">
         <v>315</v>
       </c>
       <c r="D30">
-        <v>0.07280832000137784</v>
+        <v>0.07846380232040852</v>
       </c>
       <c r="E30">
-        <v>0.00165473454548586</v>
+        <v>0.001669442602561883</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1858,16 +1858,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0002531090397432533</v>
+        <v>0.1181431100168022</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
       </c>
       <c r="D31">
-        <v>0.07846380232040852</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0.001669442602561883</v>
+        <v>0.2289022756575542</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1875,16 +1875,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.1181431100168022</v>
+        <v>3.85985488690904E-06</v>
       </c>
       <c r="C32" t="s">
         <v>315</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.001196555014941803</v>
       </c>
       <c r="E32">
-        <v>0.2274805223926004</v>
+        <v>4.108777986138277E-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1892,16 +1892,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>3.85985488690904E-06</v>
+        <v>0.002809703315776931</v>
       </c>
       <c r="C33" t="s">
         <v>315</v>
       </c>
       <c r="D33">
-        <v>0.001196555014941803</v>
+        <v>0.8710080278908485</v>
       </c>
       <c r="E33">
-        <v>4.108777986138277E-05</v>
+        <v>0.01146063194593222</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1909,16 +1909,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.002809703315776931</v>
+        <v>0.7093590779930088</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D34">
-        <v>0.8710080278908485</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0.01161344037187798</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1926,16 +1926,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.7093590779930088</v>
+        <v>0.05394187092062517</v>
       </c>
       <c r="C35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.8122090338108321</v>
+        <v>0.1266816665560137</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.05394187092062517</v>
+        <v>0.005733785425017439</v>
       </c>
       <c r="C36" t="s">
         <v>315</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.1257291728225098</v>
+        <v>0.02066829629948147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1960,16 +1960,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.005733785425017439</v>
+        <v>0.740534882976122</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.02066829629948147</v>
+        <v>0.834784777173083</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1977,16 +1977,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.740534882976122</v>
+        <v>0.001546174262743644</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.4793140214505298</v>
       </c>
       <c r="E38">
-        <v>0.834784777173083</v>
+        <v>0.007048735609566614</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1994,16 +1994,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.001546174262743644</v>
+        <v>5.294752530264585E-05</v>
       </c>
       <c r="C39" t="s">
         <v>315</v>
       </c>
       <c r="D39">
-        <v>0.4793140214505298</v>
+        <v>0.01641373284382021</v>
       </c>
       <c r="E39">
-        <v>0.007048735609566614</v>
+        <v>0.0004319403379952688</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2011,16 +2011,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>5.408322919154968E-05</v>
+        <v>0.07801034038575483</v>
       </c>
       <c r="C40" t="s">
         <v>315</v>
       </c>
       <c r="D40">
-        <v>0.0167658010493804</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0.0004412052907731685</v>
+        <v>0.1715120958835744</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2028,16 +2028,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.07801034038575483</v>
+        <v>0.0008364968575615118</v>
       </c>
       <c r="C41" t="s">
         <v>315</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.2593140258440687</v>
       </c>
       <c r="E41">
-        <v>0.1703042642224225</v>
+        <v>0.004251049604001125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2045,16 +2045,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.0008364968575615118</v>
+        <v>0.009402436476750134</v>
       </c>
       <c r="C42" t="s">
         <v>315</v>
       </c>
       <c r="D42">
-        <v>0.2593140258440687</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0.004251049604001125</v>
+        <v>0.03068163481886886</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2062,16 +2062,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.009402436476750134</v>
+        <v>0.1417547824919023</v>
       </c>
       <c r="C43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.03036203445617231</v>
+        <v>0.256982354225086</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2079,16 +2079,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1417547824919023</v>
+        <v>0.02995581443708736</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.255488270770289</v>
+        <v>0.08145879364471123</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2096,7 +2096,7 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.02995581443708736</v>
+        <v>0.09168499592422995</v>
       </c>
       <c r="C45" t="s">
         <v>315</v>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.08075045630867027</v>
+        <v>0.1907540183658475</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2113,7 +2113,7 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.09168499592422995</v>
+        <v>0.006394313054224087</v>
       </c>
       <c r="C46" t="s">
         <v>315</v>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.1894823249100752</v>
+        <v>0.0225813784047007</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2130,7 +2130,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.006394313054224087</v>
+        <v>0.03546180933761706</v>
       </c>
       <c r="C47" t="s">
         <v>315</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.0225813784047007</v>
+        <v>0.09442998244408689</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03546180933761706</v>
+        <v>0.1117397155304023</v>
       </c>
       <c r="C48" t="s">
         <v>315</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.09362972835557769</v>
+        <v>0.2212087810389883</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2164,7 +2164,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1117397155304023</v>
+        <v>0.1415387210666594</v>
       </c>
       <c r="C49" t="s">
         <v>315</v>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.2198087254627921</v>
+        <v>0.256982354225086</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2181,7 +2181,7 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.1415387210666594</v>
+        <v>0.1290437309856539</v>
       </c>
       <c r="C50" t="s">
         <v>315</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.255488270770289</v>
+        <v>0.2424457976094103</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2198,16 +2198,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.1290437309856539</v>
+        <v>0.0006049192828106929</v>
       </c>
       <c r="C51" t="s">
         <v>315</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.1875249776713148</v>
       </c>
       <c r="E51">
-        <v>0.2409852807563416</v>
+        <v>0.003348660315559193</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2215,16 +2215,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0006049192828106929</v>
+        <v>0.05768255765381051</v>
       </c>
       <c r="C52" t="s">
         <v>315</v>
       </c>
       <c r="D52">
-        <v>0.1875249776713148</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0.003348660315559193</v>
+        <v>0.1334447229304571</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.05768255765381051</v>
+        <v>0.1707644851754728</v>
       </c>
       <c r="C53" t="s">
         <v>315</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.1324562435013426</v>
+        <v>0.29739882249661</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2249,7 +2249,7 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.1707644851754728</v>
+        <v>0.003838517084471396</v>
       </c>
       <c r="C54" t="s">
         <v>315</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.2957373765608747</v>
+        <v>0.01451146702666016</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2266,7 +2266,7 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.003838517084471396</v>
+        <v>0.2647889336496276</v>
       </c>
       <c r="C55" t="s">
         <v>315</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.01469062094056954</v>
+        <v>0.4145685324817402</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2283,7 +2283,7 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.2647889336496276</v>
+        <v>0.7624078432609797</v>
       </c>
       <c r="C56" t="s">
         <v>315</v>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.4124852735245456</v>
+        <v>0.8453330953345405</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2300,7 +2300,7 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.7624078432609797</v>
+        <v>0.1462954192260567</v>
       </c>
       <c r="C57" t="s">
         <v>315</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.8453330953345405</v>
+        <v>0.2636719765120789</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2317,7 +2317,7 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.1462954192260567</v>
+        <v>0.2264319689233556</v>
       </c>
       <c r="C58" t="s">
         <v>315</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0.2621478610409108</v>
+        <v>0.3713963511441283</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2334,16 +2334,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2264319689233556</v>
+        <v>0.001043656770032747</v>
       </c>
       <c r="C59" t="s">
         <v>315</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.3235335987101516</v>
       </c>
       <c r="E59">
-        <v>0.3694416335065275</v>
+        <v>0.005055212479846118</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2351,16 +2351,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.001043656770032747</v>
+        <v>0.00263386681673509</v>
       </c>
       <c r="C60" t="s">
         <v>315</v>
       </c>
       <c r="D60">
-        <v>0.3235335987101516</v>
+        <v>0.8164987131878779</v>
       </c>
       <c r="E60">
-        <v>0.005055212479846118</v>
+        <v>0.01097358113739965</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2368,16 +2368,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.00263386681673509</v>
+        <v>0.0003705070958799022</v>
       </c>
       <c r="C61" t="s">
         <v>315</v>
       </c>
       <c r="D61">
-        <v>0.8164987131878779</v>
+        <v>0.1148571997227697</v>
       </c>
       <c r="E61">
-        <v>0.01103376639443078</v>
+        <v>0.002297143994455394</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2385,16 +2385,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.0003705070958799022</v>
+        <v>0.01173109568914328</v>
       </c>
       <c r="C62" t="s">
         <v>315</v>
       </c>
       <c r="D62">
-        <v>0.1148571997227697</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0.002297143994455394</v>
+        <v>0.03788166316285851</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2402,7 +2402,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01173109568914328</v>
+        <v>0.04770575587159635</v>
       </c>
       <c r="C63" t="s">
         <v>315</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>0.03749113055293214</v>
+        <v>0.1164471206314557</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2419,7 +2419,7 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.04770575587159635</v>
+        <v>0.09677945957347438</v>
       </c>
       <c r="C64" t="s">
         <v>315</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0.1155373775015224</v>
+        <v>0.1986863077336229</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2436,7 +2436,7 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09677945957347438</v>
+        <v>0.02040486620248698</v>
       </c>
       <c r="C65" t="s">
         <v>315</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0.1973791609722175</v>
+        <v>0.06141270410457245</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2453,16 +2453,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.02040486620248698</v>
+        <v>0.002410092420048007</v>
       </c>
       <c r="C66" t="s">
         <v>315</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.7471286502148823</v>
       </c>
       <c r="E66">
-        <v>0.06082219733433617</v>
+        <v>0.01037678680854003</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2470,16 +2470,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.002410092420048007</v>
+        <v>0.5117951465837456</v>
       </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D67">
-        <v>0.7471286502148823</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0.01037678680854003</v>
+        <v>0.6666239304242064</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2487,16 +2487,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.5117951465837456</v>
+        <v>1.805611170325646E-06</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.0005597394628009502</v>
       </c>
       <c r="E68">
-        <v>0.6666239304242064</v>
+        <v>2.073109121485001E-05</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2504,16 +2504,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1.805611170325646E-06</v>
+        <v>0.0001331577992424367</v>
       </c>
       <c r="C69" t="s">
         <v>315</v>
       </c>
       <c r="D69">
-        <v>0.0005597394628009502</v>
+        <v>0.04127891776515539</v>
       </c>
       <c r="E69">
-        <v>2.073109121485001E-05</v>
+        <v>0.001006802872320863</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2521,16 +2521,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0001331577992424367</v>
+        <v>0.0004826302035860232</v>
       </c>
       <c r="C70" t="s">
         <v>315</v>
       </c>
       <c r="D70">
-        <v>0.04127891776515539</v>
+        <v>0.1496153631116672</v>
       </c>
       <c r="E70">
-        <v>0.001006802872320863</v>
+        <v>0.002877218521378215</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2538,16 +2538,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0004826302035860232</v>
+        <v>0.05023934926256947</v>
       </c>
       <c r="C71" t="s">
         <v>315</v>
       </c>
       <c r="D71">
-        <v>0.1496153631116672</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0.002877218521378215</v>
+        <v>0.1207302191581127</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2555,7 +2555,7 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.05023934926256947</v>
+        <v>0.05180041608555439</v>
       </c>
       <c r="C72" t="s">
         <v>315</v>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0.1198015251645887</v>
+        <v>0.1235240691270912</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2572,16 +2572,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.05180041608555439</v>
+        <v>3.779342408447833E-12</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>1.171596146618828E-09</v>
       </c>
       <c r="E73">
-        <v>0.1225811373016936</v>
+        <v>8.368543904420202E-11</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2589,16 +2589,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>3.779342408447833E-12</v>
+        <v>7.364370638985677E-57</v>
       </c>
       <c r="C74" t="s">
         <v>316</v>
       </c>
       <c r="D74">
-        <v>1.171596146618828E-09</v>
+        <v>2.28295489808556E-54</v>
       </c>
       <c r="E74">
-        <v>8.368543904420202E-11</v>
+        <v>2.28295489808556E-54</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2606,16 +2606,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>7.364370638985677E-57</v>
+        <v>2.435461648579038E-13</v>
       </c>
       <c r="C75" t="s">
         <v>316</v>
       </c>
       <c r="D75">
-        <v>2.28295489808556E-54</v>
+        <v>7.54993111059502E-11</v>
       </c>
       <c r="E75">
-        <v>2.28295489808556E-54</v>
+        <v>5.807639315842322E-12</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2623,16 +2623,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>2.435461648579038E-13</v>
+        <v>1.412667880760412E-09</v>
       </c>
       <c r="C76" t="s">
         <v>316</v>
       </c>
       <c r="D76">
-        <v>7.54993111059502E-11</v>
+        <v>4.379270430357277E-07</v>
       </c>
       <c r="E76">
-        <v>5.807639315842322E-12</v>
+        <v>2.432928016865154E-08</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2640,16 +2640,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>1.412667880760412E-09</v>
+        <v>5.793537748709868E-05</v>
       </c>
       <c r="C77" t="s">
         <v>316</v>
       </c>
       <c r="D77">
-        <v>4.379270430357277E-07</v>
+        <v>0.01795996702100059</v>
       </c>
       <c r="E77">
-        <v>2.432928016865154E-08</v>
+        <v>0.0004605119748974511</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2657,16 +2657,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>5.793537748709868E-05</v>
+        <v>1.186805736769124E-07</v>
       </c>
       <c r="C78" t="s">
         <v>316</v>
       </c>
       <c r="D78">
-        <v>0.01795996702100059</v>
+        <v>3.679097783984285E-05</v>
       </c>
       <c r="E78">
-        <v>0.0004605119748974511</v>
+        <v>1.672317174538311E-06</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2674,16 +2674,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>1.186805736769124E-07</v>
+        <v>0.0004162998132683352</v>
       </c>
       <c r="C79" t="s">
         <v>316</v>
       </c>
       <c r="D79">
-        <v>3.679097783984285E-05</v>
+        <v>0.1290529421131839</v>
       </c>
       <c r="E79">
-        <v>1.672317174538311E-06</v>
+        <v>0.002530449845356548</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2691,16 +2691,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0004162998132683352</v>
+        <v>0.00286142048513461</v>
       </c>
       <c r="C80" t="s">
         <v>316</v>
       </c>
       <c r="D80">
-        <v>0.1290529421131839</v>
+        <v>0.8870403503917291</v>
       </c>
       <c r="E80">
-        <v>0.002530449845356548</v>
+        <v>0.01146865386600667</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2708,16 +2708,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.00286142048513461</v>
+        <v>2.404098411537372E-36</v>
       </c>
       <c r="C81" t="s">
         <v>316</v>
       </c>
       <c r="D81">
-        <v>0.8870403503917291</v>
+        <v>7.452705075765854E-34</v>
       </c>
       <c r="E81">
-        <v>0.01161568788992984</v>
+        <v>3.726352537882927E-34</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2725,16 +2725,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>2.404098411537372E-36</v>
+        <v>5.058815357308157E-09</v>
       </c>
       <c r="C82" t="s">
         <v>316</v>
       </c>
       <c r="D82">
-        <v>7.452705075765854E-34</v>
+        <v>1.568232760765529E-06</v>
       </c>
       <c r="E82">
-        <v>3.726352537882927E-34</v>
+        <v>8.253856635608046E-08</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2742,16 +2742,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>5.058815357308157E-09</v>
+        <v>0.0005654639610947878</v>
       </c>
       <c r="C83" t="s">
         <v>316</v>
       </c>
       <c r="D83">
-        <v>1.568232760765529E-06</v>
+        <v>0.1752938279393842</v>
       </c>
       <c r="E83">
-        <v>8.253856635608046E-08</v>
+        <v>0.003187160507988804</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2759,16 +2759,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0005654639610947878</v>
+        <v>1.160880091486938E-06</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D84">
-        <v>0.1752938279393842</v>
+        <v>0.0003598728283609507</v>
       </c>
       <c r="E84">
-        <v>0.003187160507988804</v>
+        <v>1.466833624285883E-05</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2776,16 +2776,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>1.160880091486938E-06</v>
+        <v>0.9384536774598429</v>
       </c>
       <c r="C85" t="s">
         <v>315</v>
       </c>
       <c r="D85">
-        <v>0.0003598728283609507</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>1.466833624285883E-05</v>
+        <v>0.9644653713779578</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2793,16 +2793,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.9384536774598429</v>
+        <v>0.002496976833706793</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0.7740628184491057</v>
       </c>
       <c r="E86">
-        <v>0.9644653713779578</v>
+        <v>0.01060360025272748</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2810,16 +2810,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.002496976833706793</v>
+        <v>0.02134354039938119</v>
       </c>
       <c r="C87" t="s">
         <v>316</v>
       </c>
       <c r="D87">
-        <v>0.7740628184491057</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.01060360025272748</v>
+        <v>0.06341211578348127</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2827,7 +2827,7 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02134354039938119</v>
+        <v>0.01388474294254446</v>
       </c>
       <c r="C88" t="s">
         <v>316</v>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0.06281947918737397</v>
+        <v>0.04392112563457942</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2844,7 +2844,7 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01388474294254446</v>
+        <v>0.08667842250557824</v>
       </c>
       <c r="C89" t="s">
         <v>316</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0.0434774779008968</v>
+        <v>0.1827912311342126</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2861,7 +2861,7 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.08667842250557824</v>
+        <v>0.07786792009957504</v>
       </c>
       <c r="C90" t="s">
         <v>316</v>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0.1815561552481706</v>
+        <v>0.1715120958835744</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2878,16 +2878,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07786792009957504</v>
+        <v>0.02754718757028776</v>
       </c>
       <c r="C91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0.1703042642224225</v>
+        <v>0.07624667988204648</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2895,16 +2895,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02754718757028776</v>
+        <v>0.62390476398802</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0.07557193050255934</v>
+        <v>0.7675018922074849</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2912,16 +2912,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.62390476398802</v>
+        <v>0.4980412329241648</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.7675018922074849</v>
+        <v>0.6581225487223316</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2929,7 +2929,7 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.4980412329241648</v>
+        <v>0.006612506949706288</v>
       </c>
       <c r="C94" t="s">
         <v>315</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0.6581225487223316</v>
+        <v>0.0227764128267661</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2946,16 +2946,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.006612506949706288</v>
+        <v>0.0002601067591109728</v>
       </c>
       <c r="C95" t="s">
         <v>315</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0.08063309532440156</v>
       </c>
       <c r="E95">
-        <v>0.0227764128267661</v>
+        <v>0.001679856152591699</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2963,16 +2963,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0002601067591109728</v>
+        <v>0.6519329984162665</v>
       </c>
       <c r="C96" t="s">
         <v>315</v>
       </c>
       <c r="D96">
-        <v>0.08063309532440156</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0.001679856152591699</v>
+        <v>0.7925459980746768</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2980,16 +2980,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.6519329984162665</v>
+        <v>0.8150404258886378</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0.7925459980746768</v>
+        <v>0.8834354266625095</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2997,16 +2997,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.8150404258886378</v>
+        <v>0.3025735668480544</v>
       </c>
       <c r="C98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0.8834354266625095</v>
+        <v>0.4689890286144843</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3014,7 +3014,7 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.3025735668480544</v>
+        <v>0.1258084129533189</v>
       </c>
       <c r="C99" t="s">
         <v>315</v>
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0.4666557498651585</v>
+        <v>0.2396033592003491</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3031,7 +3031,7 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1258084129533189</v>
+        <v>0.08017527059147622</v>
       </c>
       <c r="C100" t="s">
         <v>315</v>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0.238142363107664</v>
+        <v>0.1733065264898084</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3048,16 +3048,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.08017527059147622</v>
+        <v>0.997813400006164</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0.1721113090657408</v>
+        <v>0.997813400006164</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3065,16 +3065,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>0.997813400006164</v>
+        <v>0.002030721124756793</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0.6295235486746057</v>
       </c>
       <c r="E102">
-        <v>0.997813400006164</v>
+        <v>0.008866528854571912</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3082,16 +3082,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>0.002030721124756793</v>
+        <v>0.9597644588497396</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D103">
-        <v>0.6295235486746057</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.008866528854571912</v>
+        <v>0.9723103994882983</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3099,16 +3099,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>0.9597644588497396</v>
+        <v>0.3591551933283674</v>
       </c>
       <c r="C104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0.9723103994882983</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3116,16 +3116,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>0.3591551933283674</v>
+        <v>0.0002505475919184621</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0.07766975349472326</v>
       </c>
       <c r="E105">
-        <v>0.5227141311351826</v>
+        <v>0.001669442602561883</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3133,16 +3133,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.0002505475919184621</v>
+        <v>0.02378105078844754</v>
       </c>
       <c r="C106" t="s">
         <v>316</v>
       </c>
       <c r="D106">
-        <v>0.07766975349472326</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.001669442602561883</v>
+        <v>0.06701932494926126</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3150,16 +3150,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>0.02378105078844754</v>
+        <v>0.006483040896833427</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0.06641554724701566</v>
+        <v>0.0225813784047007</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3167,16 +3167,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>0.006483040896833427</v>
+        <v>0.00869093250707406</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0.0225813784047007</v>
+        <v>0.0289697750235802</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3184,16 +3184,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.00869093250707406</v>
+        <v>0.2498611876652622</v>
       </c>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0.0289697750235802</v>
+        <v>0.3972152214165707</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3201,16 +3201,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>0.2498611876652622</v>
+        <v>0.83344378857516</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0.3951886131440372</v>
+        <v>0.8866522200965742</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3218,7 +3218,7 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0.83344378857516</v>
+        <v>0.1043367737035378</v>
       </c>
       <c r="C111" t="s">
         <v>316</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0.8866522200965742</v>
+        <v>0.2114013061967106</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3235,7 +3235,7 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.1043367737035378</v>
+        <v>0.423475865873735</v>
       </c>
       <c r="C112" t="s">
         <v>316</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0.2100285704421865</v>
+        <v>0.5940159204563703</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3252,7 +3252,7 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>0.423475865873735</v>
+        <v>0.970974978351172</v>
       </c>
       <c r="C113" t="s">
         <v>316</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0.5940159204563703</v>
+        <v>0.9772800106781276</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3269,16 +3269,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>0.970974978351172</v>
+        <v>0.8028072578913796</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0.9772800106781276</v>
+        <v>0.8763036969941116</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3286,16 +3286,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>0.8028072578913796</v>
+        <v>5.032375482713564E-05</v>
       </c>
       <c r="C115" t="s">
         <v>315</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0.01560036399641205</v>
       </c>
       <c r="E115">
-        <v>0.8763036969941116</v>
+        <v>0.0004216314593624878</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3303,16 +3303,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>4.06094774539353E-05</v>
+        <v>0.2010453545081192</v>
       </c>
       <c r="C116" t="s">
         <v>315</v>
       </c>
       <c r="D116">
-        <v>0.01258893801071994</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.0003402415678572958</v>
+        <v>0.3365456959642371</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3320,7 +3320,7 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>0.2010453545081192</v>
+        <v>0.08149232189952922</v>
       </c>
       <c r="C117" t="s">
         <v>315</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0.3347459863601502</v>
+        <v>0.1742249640610625</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3337,16 +3337,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.08149232189952922</v>
+        <v>0.001096951613804705</v>
       </c>
       <c r="C118" t="s">
         <v>315</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0.3400550002794585</v>
       </c>
       <c r="E118">
-        <v>0.1730316423894114</v>
+        <v>0.005152348489082704</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3354,16 +3354,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>0.001096951613804705</v>
+        <v>0.007584576577007291</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119">
-        <v>0.3400550002794585</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.005152348489082704</v>
+        <v>0.02555672542252457</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3371,16 +3371,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>0.007584576577007291</v>
+        <v>0.007453407162287343</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0.02555672542252457</v>
+        <v>0.02539072769570414</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3388,16 +3388,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>0.007453407162287343</v>
+        <v>0.3514351721179978</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0.02539072769570414</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3405,16 +3405,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>0.3514351721179978</v>
+        <v>0.2013690589935655</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0.5227141311351826</v>
+        <v>0.3365456959642371</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3422,16 +3422,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>0.2013690589935655</v>
+        <v>0.6069447055737884</v>
       </c>
       <c r="C123" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0.3347459863601502</v>
+        <v>0.7506647461772924</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3439,7 +3439,7 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.6069447055737884</v>
+        <v>0.4357408603184849</v>
       </c>
       <c r="C124" t="s">
         <v>316</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0.7506647461772924</v>
+        <v>0.6057384156893736</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3456,7 +3456,7 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>0.4357408603184849</v>
+        <v>0.7016036699114335</v>
       </c>
       <c r="C125" t="s">
         <v>316</v>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0.6057384156893736</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3473,16 +3473,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>0.7016036699114335</v>
+        <v>0.02305805526642719</v>
       </c>
       <c r="C126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0.8122090338108321</v>
+        <v>0.066252767163596</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3490,7 +3490,7 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.02305805526642719</v>
+        <v>0.09561319162270815</v>
       </c>
       <c r="C127" t="s">
         <v>315</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0.06564494361163641</v>
+        <v>0.1976005960202635</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3507,16 +3507,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>0.09561319162270815</v>
+        <v>0.7152679555817972</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0.1962919828015862</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3524,16 +3524,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>0.7152679555817972</v>
+        <v>0.001747664195132767</v>
       </c>
       <c r="C129" t="s">
         <v>316</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0.5417759004911578</v>
       </c>
       <c r="E129">
-        <v>0.8122090338108321</v>
+        <v>0.007739655721302255</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3541,16 +3541,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.001747664195132767</v>
+        <v>0.5932499592758473</v>
       </c>
       <c r="C130" t="s">
         <v>316</v>
       </c>
       <c r="D130">
-        <v>0.5417759004911578</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.007739655721302255</v>
+        <v>0.7385842866486453</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3558,7 +3558,7 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>0.5932499592758473</v>
+        <v>0.6985943641449399</v>
       </c>
       <c r="C131" t="s">
         <v>316</v>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>0.7385842866486453</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3575,7 +3575,7 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>0.6985943641449399</v>
+        <v>0.6999751757448502</v>
       </c>
       <c r="C132" t="s">
         <v>316</v>
@@ -3592,16 +3592,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.6999751757448502</v>
+        <v>0.4712261548170044</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0.8122090338108321</v>
+        <v>0.6407022280406638</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3609,16 +3609,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>0.4712261548170044</v>
+        <v>0.3520341251800563</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>0.6407022280406638</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3626,7 +3626,7 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>0.3520341251800563</v>
+        <v>0.8306790394250614</v>
       </c>
       <c r="C135" t="s">
         <v>316</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0.5227141311351826</v>
+        <v>0.8866522200965742</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3643,16 +3643,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.8306790394250614</v>
+        <v>1.217698820338936E-05</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0.003774866343050703</v>
       </c>
       <c r="E136">
-        <v>0.8866522200965742</v>
+        <v>0.0001110254806779618</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3660,16 +3660,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>1.217698820338936E-05</v>
+        <v>0.3529977886994333</v>
       </c>
       <c r="C137" t="s">
         <v>315</v>
       </c>
       <c r="D137">
-        <v>0.003774866343050703</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.0001143898891833546</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3677,16 +3677,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>0.3529977886994333</v>
+        <v>0.6448953349622243</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>0.5227141311351826</v>
+        <v>0.7870769836153131</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3694,16 +3694,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.6448953349622243</v>
+        <v>0.4791096763658192</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>0.7870769836153131</v>
+        <v>0.6485764177877902</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3711,7 +3711,7 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>0.4791096763658192</v>
+        <v>0.1583746008896439</v>
       </c>
       <c r="C140" t="s">
         <v>315</v>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="E140">
-        <v>0.6485764177877902</v>
+        <v>0.2837926374323099</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3728,7 +3728,7 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>0.1583746008896439</v>
+        <v>0.2934195646624594</v>
       </c>
       <c r="C141" t="s">
         <v>315</v>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>0.2821616452631587</v>
+        <v>0.4570857539967961</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3745,16 +3745,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.2934195646624594</v>
+        <v>6.759050634666993E-07</v>
       </c>
       <c r="C142" t="s">
         <v>315</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0.0002095305696746768</v>
       </c>
       <c r="E142">
-        <v>0.4548003252268121</v>
+        <v>9.110024768464209E-06</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3762,16 +3762,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>6.759050634666993E-07</v>
+        <v>6.613889309279604E-12</v>
       </c>
       <c r="C143" t="s">
         <v>315</v>
       </c>
       <c r="D143">
-        <v>0.0002095305696746768</v>
+        <v>2.050305685876677E-09</v>
       </c>
       <c r="E143">
-        <v>9.110024768464209E-06</v>
+        <v>1.366870457251118E-10</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3779,16 +3779,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>6.613889309279604E-12</v>
+        <v>2.979718225110612E-11</v>
       </c>
       <c r="C144" t="s">
         <v>315</v>
       </c>
       <c r="D144">
-        <v>2.050305685876677E-09</v>
+        <v>9.237126497842899E-09</v>
       </c>
       <c r="E144">
-        <v>1.366870457251118E-10</v>
+        <v>5.773204061151812E-10</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3796,16 +3796,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>2.979718225110612E-11</v>
+        <v>0.01269315776884266</v>
       </c>
       <c r="C145" t="s">
         <v>315</v>
       </c>
       <c r="D145">
-        <v>9.237126497842899E-09</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>5.773204061151812E-10</v>
+        <v>0.04056576194166211</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3813,7 +3813,7 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>0.01269315776884266</v>
+        <v>0.008957384232796177</v>
       </c>
       <c r="C146" t="s">
         <v>315</v>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>0.04015182559531862</v>
+        <v>0.02954030970390228</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3830,16 +3830,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>0.008957384232796177</v>
+        <v>0.8566529855630161</v>
       </c>
       <c r="C147" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>0.02954030970390228</v>
+        <v>0.9032735562059013</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3847,7 +3847,7 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.8566529855630161</v>
+        <v>0.7338002189658754</v>
       </c>
       <c r="C148" t="s">
         <v>316</v>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>0.9032735562059013</v>
+        <v>0.8302119265672313</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3864,16 +3864,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>0.7338002189658754</v>
+        <v>0.004645470559284988</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>0.8302119265672313</v>
+        <v>0.01714399849259936</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3881,7 +3881,7 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>0.004645470559284988</v>
+        <v>0.0533401064828021</v>
       </c>
       <c r="C150" t="s">
         <v>315</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="E150">
-        <v>0.01714399849259936</v>
+        <v>0.1262246794631195</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3898,7 +3898,7 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.0533401064828021</v>
+        <v>0.0233489659342298</v>
       </c>
       <c r="C151" t="s">
         <v>315</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>0.1252684318914292</v>
+        <v>0.06640531595973614</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3915,7 +3915,7 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>0.0233489659342298</v>
+        <v>0.417929448815047</v>
       </c>
       <c r="C152" t="s">
         <v>315</v>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>0.06580163126919308</v>
+        <v>0.5934109417710219</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3932,7 +3932,7 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>0.417929448815047</v>
+        <v>0.1287363871677956</v>
       </c>
       <c r="C153" t="s">
         <v>315</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>0.5934109417710219</v>
+        <v>0.2424457976094103</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3949,16 +3949,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.1287363871677956</v>
+        <v>0.470560562231548</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154">
-        <v>0.2409852807563416</v>
+        <v>0.6407022280406638</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3966,16 +3966,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>0.470560562231548</v>
+        <v>0.01884073650046476</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155">
-        <v>0.6407022280406638</v>
+        <v>0.05899624560751593</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3983,16 +3983,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>0.01884073650046476</v>
+        <v>0.7094675156149459</v>
       </c>
       <c r="C156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>0.05840628315144077</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4000,7 +4000,7 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.7094675156149459</v>
+        <v>0.4333285383099337</v>
       </c>
       <c r="C157" t="s">
         <v>316</v>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="E157">
-        <v>0.8122090338108321</v>
+        <v>0.6050984093517091</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4017,16 +4017,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>0.4333285383099337</v>
+        <v>0.06452052628208446</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>0.6050984093517091</v>
+        <v>0.1481582455366384</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4034,7 +4034,7 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>0.06452052628208446</v>
+        <v>0.369721832999043</v>
       </c>
       <c r="C159" t="s">
         <v>315</v>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E159">
-        <v>0.1470688466723984</v>
+        <v>0.5355783562135671</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4051,16 +4051,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.369721832999043</v>
+        <v>5.465754098869218E-06</v>
       </c>
       <c r="C160" t="s">
         <v>315</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.001694383770649457</v>
       </c>
       <c r="E160">
-        <v>0.5355783562135671</v>
+        <v>5.465754098869218E-05</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4068,16 +4068,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>5.465754098869218E-06</v>
+        <v>0.1064236529380541</v>
       </c>
       <c r="C161" t="s">
         <v>315</v>
       </c>
       <c r="D161">
-        <v>0.001694383770649457</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>5.465754098869218E-05</v>
+        <v>0.2128473058761081</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4085,16 +4085,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>0.1064236529380541</v>
+        <v>0.3590821390472206</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>0.21148290006921</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4102,16 +4102,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.3590821390472206</v>
+        <v>0.216542879773823</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>0.5227141311351826</v>
+        <v>0.3589748274325408</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4119,7 +4119,7 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>0.216542879773823</v>
+        <v>0.3236507992937115</v>
       </c>
       <c r="C164" t="s">
         <v>315</v>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="E164">
-        <v>0.3570653868610912</v>
+        <v>0.4942450629608403</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4136,16 +4136,16 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>0.3236507992937115</v>
+        <v>0.5010223274144201</v>
       </c>
       <c r="C165" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165">
-        <v>0.4918222930443656</v>
+        <v>0.6581225487223316</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4153,7 +4153,7 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>0.5010223274144201</v>
+        <v>0.9067164026041917</v>
       </c>
       <c r="C166" t="s">
         <v>316</v>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="E166">
-        <v>0.6581225487223316</v>
+        <v>0.9432284725077162</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4170,7 +4170,7 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>0.9067164026041917</v>
+        <v>0.5603012139616973</v>
       </c>
       <c r="C167" t="s">
         <v>316</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="E167">
-        <v>0.9432284725077162</v>
+        <v>0.7089525564413313</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4187,16 +4187,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>0.5603012139616973</v>
+        <v>0.1001495231908513</v>
       </c>
       <c r="C168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168">
-        <v>0.7089525564413313</v>
+        <v>0.2042523170339731</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4204,16 +4204,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>0.1001495231908513</v>
+        <v>0.9559684622458801</v>
       </c>
       <c r="C169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169">
-        <v>0.2029173345696987</v>
+        <v>0.9723103994882983</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4221,16 +4221,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>0.9559684622458801</v>
+        <v>0.0007275917797010626</v>
       </c>
       <c r="C170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0.2255534517073294</v>
       </c>
       <c r="E170">
-        <v>0.9723103994882983</v>
+        <v>0.003826747130677757</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4238,16 +4238,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>0.0007275917797010626</v>
+        <v>0.004018906443387872</v>
       </c>
       <c r="C171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D171">
-        <v>0.2255534517073294</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.003826747130677757</v>
+        <v>0.0150103734632559</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4255,16 +4255,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>0.004018906443387872</v>
+        <v>0.376128739234445</v>
       </c>
       <c r="C172" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172">
-        <v>0.0150103734632559</v>
+        <v>0.5423251588961765</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4272,16 +4272,16 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>0.376128739234445</v>
+        <v>9.791457040994262E-18</v>
       </c>
       <c r="C173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3.035351682708221E-15</v>
       </c>
       <c r="E173">
-        <v>0.5423251588961765</v>
+        <v>3.035351682708221E-16</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4289,16 +4289,16 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>9.791457040994262E-18</v>
+        <v>0.9577369763436506</v>
       </c>
       <c r="C174" t="s">
         <v>316</v>
       </c>
       <c r="D174">
-        <v>3.035351682708221E-15</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>3.035351682708221E-16</v>
+        <v>0.9723103994882983</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4306,7 +4306,7 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>0.9577369763436506</v>
+        <v>0.2463393471580655</v>
       </c>
       <c r="C175" t="s">
         <v>316</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E175">
-        <v>0.9723103994882983</v>
+        <v>0.3936350392731974</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4323,7 +4323,7 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>0.2463393471580655</v>
+        <v>0.8286525958712017</v>
       </c>
       <c r="C176" t="s">
         <v>316</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E176">
-        <v>0.3916163980461554</v>
+        <v>0.8866522200965742</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4340,16 +4340,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>0.8286525958712017</v>
+        <v>1.23522479341273E-08</v>
       </c>
       <c r="C177" t="s">
         <v>316</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3.829196859579464E-06</v>
       </c>
       <c r="E177">
-        <v>0.8866522200965742</v>
+        <v>1.914598429789732E-07</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4357,16 +4357,16 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>1.23522479341273E-08</v>
+        <v>0.1896330461856404</v>
       </c>
       <c r="C178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D178">
-        <v>3.829196859579464E-06</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>1.914598429789732E-07</v>
+        <v>0.3212363077461667</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4374,7 +4374,7 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>0.1896330461856404</v>
+        <v>0.888850375703151</v>
       </c>
       <c r="C179" t="s">
         <v>315</v>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="E179">
-        <v>0.3194904582475463</v>
+        <v>0.9277562844039623</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4391,7 +4391,7 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>0.888850375703151</v>
+        <v>0.5556508595467924</v>
       </c>
       <c r="C180" t="s">
         <v>315</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="E180">
-        <v>0.9277562844039623</v>
+        <v>0.7085111095801628</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4408,7 +4408,7 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>0.5556508595467924</v>
+        <v>0.1343166299834584</v>
       </c>
       <c r="C181" t="s">
         <v>315</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="E181">
-        <v>0.7085111095801628</v>
+        <v>0.2504356738768821</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4425,16 +4425,16 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>0.1343166299834584</v>
+        <v>0.7948735148333139</v>
       </c>
       <c r="C182" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182">
-        <v>0.2489449853419007</v>
+        <v>0.8708851869991756</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4442,7 +4442,7 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>0.7948735148333139</v>
+        <v>0.8329574012338814</v>
       </c>
       <c r="C183" t="s">
         <v>316</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="E183">
-        <v>0.8708851869991756</v>
+        <v>0.8866522200965742</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4459,16 +4459,16 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>0.8329574012338814</v>
+        <v>0.2187016751282727</v>
       </c>
       <c r="C184" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184">
-        <v>0.8866522200965742</v>
+        <v>0.3606251026051304</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4476,7 +4476,7 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>0.2187016751282727</v>
+        <v>0.3136170796320618</v>
       </c>
       <c r="C185" t="s">
         <v>315</v>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="E185">
-        <v>0.3587170332791774</v>
+        <v>0.4812935380492037</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4493,7 +4493,7 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>0.3136170796320618</v>
+        <v>0.02308160920538183</v>
       </c>
       <c r="C186" t="s">
         <v>315</v>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="E186">
-        <v>0.4789226339208825</v>
+        <v>0.066252767163596</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4510,16 +4510,16 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>0.02308160920538183</v>
+        <v>0.000728316389387057</v>
       </c>
       <c r="C187" t="s">
         <v>315</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0.2257780807099877</v>
       </c>
       <c r="E187">
-        <v>0.06564494361163641</v>
+        <v>0.003826747130677757</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4527,16 +4527,16 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>0.000728316389387057</v>
+        <v>0.50024868298712</v>
       </c>
       <c r="C188" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D188">
-        <v>0.2257780807099877</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.003826747130677757</v>
+        <v>0.6581225487223316</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4544,16 +4544,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>0.50024868298712</v>
+        <v>0.3545286802889448</v>
       </c>
       <c r="C189" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189">
-        <v>0.6581225487223316</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4561,7 +4561,7 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>0.3545286802889448</v>
+        <v>0.1056735653438678</v>
       </c>
       <c r="C190" t="s">
         <v>315</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <v>0.5227141311351826</v>
+        <v>0.2127195146532403</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4578,7 +4578,7 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>0.1056735653438678</v>
+        <v>0.04739087710895771</v>
       </c>
       <c r="C191" t="s">
         <v>315</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="E191">
-        <v>0.2113471306877355</v>
+        <v>0.1164471206314557</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4595,16 +4595,16 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>0.04739087710895771</v>
+        <v>0.02638504828051528</v>
       </c>
       <c r="C192" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192">
-        <v>0.1155373775015224</v>
+        <v>0.07368797267531293</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4612,16 +4612,16 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>0.02638504828051528</v>
+        <v>0.7057187634988595</v>
       </c>
       <c r="C193" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
       <c r="E193">
-        <v>0.07303004434785479</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4629,16 +4629,16 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>0.7057187634988595</v>
+        <v>0.9530288192782349</v>
       </c>
       <c r="C194" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>0.8122090338108321</v>
+        <v>0.9723103994882983</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4646,7 +4646,7 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>0.9530288192782349</v>
+        <v>0.7081842749335223</v>
       </c>
       <c r="C195" t="s">
         <v>316</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="E195">
-        <v>0.9723103994882983</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4663,16 +4663,16 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>0.7081842749335223</v>
+        <v>0.07473422176341965</v>
       </c>
       <c r="C196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196">
-        <v>0.8122090338108321</v>
+        <v>0.1666734442205762</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4680,16 +4680,16 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>0.07473422176341965</v>
+        <v>0.409408016625035</v>
       </c>
       <c r="C197" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>0.1654829196190007</v>
+        <v>0.5848685951786214</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4697,16 +4697,16 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>0.409408016625035</v>
+        <v>0.4534271478057734</v>
       </c>
       <c r="C198" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="E198">
-        <v>0.5848685951786214</v>
+        <v>0.6247218480879545</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4714,16 +4714,16 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>0.4534271478057734</v>
+        <v>0.7950338965186023</v>
       </c>
       <c r="C199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D199">
         <v>1</v>
       </c>
       <c r="E199">
-        <v>0.6247218480879545</v>
+        <v>0.8708851869991756</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4731,16 +4731,16 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>0.7950338965186023</v>
+        <v>0.6397735205752357</v>
       </c>
       <c r="C200" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="E200">
-        <v>0.8708851869991756</v>
+        <v>0.7839122188866524</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4748,7 +4748,7 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>0.6397735205752357</v>
+        <v>0.5687273299413274</v>
       </c>
       <c r="C201" t="s">
         <v>315</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="E201">
-        <v>0.7839122188866524</v>
+        <v>0.7166889117146807</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4765,7 +4765,7 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>0.5687273299413274</v>
+        <v>0.3490766558618382</v>
       </c>
       <c r="C202" t="s">
         <v>315</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="E202">
-        <v>0.7166889117146807</v>
+        <v>0.5227141311351826</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4782,7 +4782,7 @@
         <v>206</v>
       </c>
       <c r="B203">
-        <v>0.3490766558618382</v>
+        <v>0.0551339922950645</v>
       </c>
       <c r="C203" t="s">
         <v>315</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>0.5227141311351826</v>
+        <v>0.12850780159</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4799,16 +4799,16 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>0.0551339922950645</v>
+        <v>0.8778332317290829</v>
       </c>
       <c r="C204" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D204">
         <v>1</v>
       </c>
       <c r="E204">
-        <v>0.1275487881452985</v>
+        <v>0.922468819783104</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4816,16 +4816,16 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>0.8778332317290829</v>
+        <v>0.5827949520572707</v>
       </c>
       <c r="C205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205">
-        <v>0.922468819783104</v>
+        <v>0.7284936900715884</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4833,7 +4833,7 @@
         <v>209</v>
       </c>
       <c r="B206">
-        <v>0.5827949520572707</v>
+        <v>0.4865753741887654</v>
       </c>
       <c r="C206" t="s">
         <v>315</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>0.7284936900715884</v>
+        <v>0.655818982602249</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4850,7 +4850,7 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>0.4865753741887654</v>
+        <v>0.6873314417258936</v>
       </c>
       <c r="C207" t="s">
         <v>315</v>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <v>0.655818982602249</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4867,7 +4867,7 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>0.6873314417258936</v>
+        <v>0.4616127793987099</v>
       </c>
       <c r="C208" t="s">
         <v>315</v>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="E208">
-        <v>0.8122090338108321</v>
+        <v>0.6331856708566376</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4884,7 +4884,7 @@
         <v>212</v>
       </c>
       <c r="B209">
-        <v>0.4616127793987099</v>
+        <v>0.1361079164040373</v>
       </c>
       <c r="C209" t="s">
         <v>315</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>0.6331856708566376</v>
+        <v>0.2511515124122117</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4901,16 +4901,16 @@
         <v>213</v>
       </c>
       <c r="B210">
-        <v>0.1361079164040373</v>
+        <v>2.403046315024897E-16</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>7.449443576577179E-14</v>
       </c>
       <c r="E210">
-        <v>0.2496654087884708</v>
+        <v>6.207869647147649E-15</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4918,16 +4918,16 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>2.403046315024897E-16</v>
+        <v>0.04521484489810792</v>
       </c>
       <c r="C211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D211">
-        <v>7.449443576577179E-14</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>6.207869647147649E-15</v>
+        <v>0.1130371122452698</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4935,7 +4935,7 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>0.04521484489810792</v>
+        <v>0.5576668088308379</v>
       </c>
       <c r="C212" t="s">
         <v>315</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="E212">
-        <v>0.1121328153473077</v>
+        <v>0.7085111095801628</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4952,16 +4952,16 @@
         <v>216</v>
       </c>
       <c r="B213">
-        <v>0.5576668088308379</v>
+        <v>0.7054549233682477</v>
       </c>
       <c r="C213" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213">
-        <v>0.7085111095801628</v>
+        <v>0.8122090338108321</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4969,16 +4969,16 @@
         <v>217</v>
       </c>
       <c r="B214">
-        <v>0.7054549233682477</v>
+        <v>0.3368943503560076</v>
       </c>
       <c r="C214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D214">
         <v>1</v>
       </c>
       <c r="E214">
-        <v>0.8122090338108321</v>
+        <v>0.5119472971096193</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="E215">
-        <v>0.1654829196190007</v>
+        <v>0.1666734442205762</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="E216">
-        <v>0.3194904582475463</v>
+        <v>0.3212363077461667</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>0.238142363107664</v>
+        <v>0.2396033592003491</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>0.2957373765608747</v>
+        <v>0.29739882249661</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="E221">
-        <v>0.1873976091624459</v>
+        <v>0.1886638092243543</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="E222">
-        <v>0.09362972835557769</v>
+        <v>0.09442998244408689</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>0.2198087254627921</v>
+        <v>0.2212087810389883</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>0.2489449853419007</v>
+        <v>0.2504356738768821</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="E227">
-        <v>0.09765967218890277</v>
+        <v>0.09848034170309523</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>0.2856685018696737</v>
+        <v>0.2873102748689247</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E240">
-        <v>0.1155373775015224</v>
+        <v>0.1164471206314557</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="E244">
-        <v>0.2940475080521101</v>
+        <v>0.2957277795266935</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="E246">
-        <v>0.3033776691970297</v>
+        <v>0.3050725165109797</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="E247">
-        <v>0.1721113090657408</v>
+        <v>0.1733065264898084</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="E248">
-        <v>0.2243894056465063</v>
+        <v>0.2258006597700692</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="E250">
-        <v>0.1792403164710403</v>
+        <v>0.1804679898715269</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5624,7 +5624,7 @@
         <v>0.8961991655899562</v>
       </c>
       <c r="E252">
-        <v>0.01161568788992984</v>
+        <v>0.01146865386600667</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="E254">
-        <v>0.0607086979407793</v>
+        <v>0.0613038812539242</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="E256">
-        <v>0.308159896894295</v>
+        <v>0.3098718963214855</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="E257">
-        <v>0.1520262417837612</v>
+        <v>0.1531359223807229</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>0.4756867912351118</v>
+        <v>0.4780533921865302</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="E261">
-        <v>0.3911902686650571</v>
+        <v>0.3932171612488138</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="E263">
-        <v>0.06281947918737397</v>
+        <v>0.06341211578348127</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>0.3866463415159995</v>
+        <v>0.3886706679113713</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="E276">
-        <v>0.2335645451641249</v>
+        <v>0.2350152566247716</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="E279">
-        <v>0.1721113090657408</v>
+        <v>0.1733065264898084</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="E282">
-        <v>0.4124852735245456</v>
+        <v>0.4145685324817402</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="E287">
-        <v>0.3893476718416857</v>
+        <v>0.3913755242991945</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="E289">
-        <v>0.3132801134359113</v>
+        <v>0.3150109427919107</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="E291">
-        <v>0.3866463415159995</v>
+        <v>0.3886706679113713</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="E295">
-        <v>0.1513064545521211</v>
+        <v>0.1524190020120632</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E298">
-        <v>0.1117329869106124</v>
+        <v>0.1126413851781784</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="E299">
-        <v>0.05878011025372803</v>
+        <v>0.0593620915433689</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="E302">
-        <v>0.1117329869106124</v>
+        <v>0.1126413851781784</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="E303">
-        <v>0.1117329869106124</v>
+        <v>0.1126413851781784</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="E304">
-        <v>0.2521507238947915</v>
+        <v>0.2536427400125122</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="E309">
-        <v>0.09529668179755947</v>
+        <v>0.09610428079584388</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6610,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="E310">
-        <v>0.09882374369268643</v>
+        <v>0.09964727489012548</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9753567666754299</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9775459940493664</v>
+        <v>0.9742766094538835</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6807,13 +6807,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06751777745015393</v>
+        <v>0.5430480924896955</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.2828447433722664</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6821,13 +6821,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.5430480924896955</v>
+        <v>0.441430474305489</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.7831286380023261</v>
+        <v>0.7202286686036925</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6835,13 +6835,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.441430474305489</v>
+        <v>0.4120464356206036</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.7202286686036925</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6849,13 +6849,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.4120464356206036</v>
+        <v>0.03221996806145087</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.6920025317090821</v>
+        <v>0.1884564169632032</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6863,13 +6863,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03221996806145087</v>
+        <v>2.888229493234165E-26</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>8.953511429025911E-24</v>
       </c>
       <c r="D16">
-        <v>0.1884564169632032</v>
+        <v>4.476755714512955E-24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6877,13 +6877,13 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>2.888229493234165E-26</v>
+        <v>0.4267891163141689</v>
       </c>
       <c r="C17">
-        <v>8.953511429025911E-24</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>4.476755714512955E-24</v>
+        <v>0.7113151938569483</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6891,13 +6891,13 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.4267891163141689</v>
+        <v>0.004123825667559991</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.7113151938569483</v>
+        <v>0.03759958696892933</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6905,13 +6905,13 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.00498762365213862</v>
+        <v>0.01127132140587991</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.04547539212244036</v>
+        <v>0.08522218623957979</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6919,13 +6919,13 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.006763324639557628</v>
+        <v>0.1896189321410119</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.05666569292602337</v>
+        <v>0.5201935306523335</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6933,13 +6933,13 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.1896189321410119</v>
+        <v>0.2077074418004466</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.5201935306523335</v>
+        <v>0.5348364175777895</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6947,13 +6947,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.2077074418004466</v>
+        <v>0.1316608136025751</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.5348364175777895</v>
+        <v>0.4207716723381267</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6961,13 +6961,13 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.1316608136025751</v>
+        <v>0.2838305445805919</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4207716723381267</v>
+        <v>0.622860882396816</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6975,13 +6975,13 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.2838305445805919</v>
+        <v>0.8649067371002066</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.622860882396816</v>
+        <v>0.9407757491265406</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6989,13 +6989,13 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.8649067371002066</v>
+        <v>0.3267936249192991</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.9440883397924791</v>
+        <v>0.6738401230967292</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7003,13 +7003,13 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.3267936249192991</v>
+        <v>0.09350656149482271</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.6738401230967292</v>
+        <v>0.3417800365499833</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7017,13 +7017,13 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.09350656149482271</v>
+        <v>0.4761461294306623</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.3378058500784719</v>
+        <v>0.7562630354756524</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7031,13 +7031,13 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.4761461294306623</v>
+        <v>0.2827209878517515</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.7562630354756524</v>
+        <v>0.622860882396816</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7045,13 +7045,13 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.2827209878517515</v>
+        <v>0.5314319272497214</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.622860882396816</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7059,13 +7059,13 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.5314319272497214</v>
+        <v>0.5862526595464894</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.7831286380023261</v>
+        <v>0.7973365269466438</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7073,13 +7073,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.5862526595464894</v>
+        <v>0.2087587307319759</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.7973365269466438</v>
+        <v>0.5348364175777895</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7087,13 +7087,13 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.2087587307319759</v>
+        <v>0.1972563573639189</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.5348364175777895</v>
+        <v>0.5272587405208292</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7101,13 +7101,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1972563573639189</v>
+        <v>0.4781534030749286</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.5272587405208292</v>
+        <v>0.7562630354756524</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7115,13 +7115,13 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.4781534030749286</v>
+        <v>0.6504542497477126</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.7562630354756524</v>
+        <v>0.8277306835787357</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7129,13 +7129,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.6504542497477126</v>
+        <v>0.3531193694225777</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.8277306835787357</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7143,13 +7143,13 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.3531193694225777</v>
+        <v>0.2205615363958251</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.6916448197390557</v>
+        <v>0.5514038409895627</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7157,13 +7157,13 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.2205615363958251</v>
+        <v>0.7997233900023325</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.5514038409895627</v>
+        <v>0.9148127339510077</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7171,13 +7171,13 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.7997233900023325</v>
+        <v>0.05451492882505</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.9148127339510077</v>
+        <v>0.2547996516769941</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7185,13 +7185,13 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.05451492882505</v>
+        <v>0.1838519184579269</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.2547996516769941</v>
+        <v>0.5181281338359759</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7199,13 +7199,13 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.1524735167324025</v>
+        <v>0.4761135832463756</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.4633999037945567</v>
+        <v>0.7562630354756524</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.4761135832463756</v>
+        <v>0.3940146074353108</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.7562630354756524</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7227,13 +7227,13 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.3940146074353108</v>
+        <v>0.06001426466810377</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.6920025317090821</v>
+        <v>0.2612316871296787</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7241,13 +7241,13 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.06001426466810377</v>
+        <v>0.1220686454416542</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.2612316871296787</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7255,13 +7255,13 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1220686454416542</v>
+        <v>0.06024082137310648</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.4046957308739862</v>
+        <v>0.2612316871296787</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.06024082137310648</v>
+        <v>0.1703872632117204</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.2612316871296787</v>
+        <v>0.5030481104346031</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.1703872632117204</v>
+        <v>0.01368770800873064</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.4983023735437105</v>
+        <v>0.09988160144321499</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01368770800873064</v>
+        <v>0.1594268129469061</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.09988160144321499</v>
+        <v>0.4798282719761251</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7311,13 +7311,13 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.1594268129469061</v>
+        <v>0.6520148571803279</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.4752145385917392</v>
+        <v>0.8277306835787357</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7325,13 +7325,13 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.6520148571803279</v>
+        <v>0.5077625402569574</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.8277306835787357</v>
+        <v>0.7754009235451075</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7339,13 +7339,13 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.5077625402569574</v>
+        <v>0.32916577391817</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.7754009235451075</v>
+        <v>0.6738401230967292</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7353,13 +7353,13 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.32916577391817</v>
+        <v>0.6670066177880623</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.6738401230967292</v>
+        <v>0.830409845438953</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7367,13 +7367,13 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.6670066177880623</v>
+        <v>0.8507667511143537</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.830409845438953</v>
+        <v>0.9378393045055332</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7381,13 +7381,13 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.8507667511143537</v>
+        <v>0.2679208935786345</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.941176810927261</v>
+        <v>0.6152257556250125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7395,13 +7395,13 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.2679208935786345</v>
+        <v>0.9384630978351783</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.6152257556250125</v>
+        <v>0.9742766094538835</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7409,13 +7409,13 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.9384630978351783</v>
+        <v>0.5023642154242003</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.9775459940493664</v>
+        <v>0.7747905810024979</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7423,13 +7423,13 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.5023642154242003</v>
+        <v>0.6199447121969945</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.7747905810024979</v>
+        <v>0.817799407579014</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7437,13 +7437,13 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.6199447121969945</v>
+        <v>0.4129692527941297</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.817799407579014</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7451,13 +7451,13 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.4129692527941297</v>
+        <v>0.1178575902647206</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.6920025317090821</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7465,13 +7465,13 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1178575902647206</v>
+        <v>0.01737412780378698</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.4024832041252195</v>
+        <v>0.1196884359816437</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7479,13 +7479,13 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01737412780378698</v>
+        <v>0.546349204852858</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.1196884359816437</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7493,13 +7493,13 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.546349204852858</v>
+        <v>0.05892572082671941</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.7831286380023261</v>
+        <v>0.2612316871296787</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7507,13 +7507,13 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.05892572082671941</v>
+        <v>0.273173539760281</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.2612316871296787</v>
+        <v>0.6226749803359347</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7521,13 +7521,13 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.273173539760281</v>
+        <v>0.5645586669094462</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.6226749803359347</v>
+        <v>0.7883476880267042</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7535,13 +7535,13 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.5645586669094462</v>
+        <v>0.03398265509232839</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.7883476880267042</v>
+        <v>0.1933865179542022</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7549,13 +7549,13 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03398265509232839</v>
+        <v>0.5701894449381151</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0.1933865179542022</v>
+        <v>0.7926400355641958</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7563,13 +7563,13 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.5701894449381151</v>
+        <v>0.3904348737364778</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0.7926400355641958</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7577,13 +7577,13 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.3904348737364778</v>
+        <v>0.07168568475834244</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0.6920025317090821</v>
+        <v>0.2963008303344821</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7591,13 +7591,13 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07168568475834244</v>
+        <v>0.09371388098951154</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.2924021351985021</v>
+        <v>0.3417800365499833</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7605,13 +7605,13 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.09371388098951154</v>
+        <v>0.446696771043247</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.3378058500784719</v>
+        <v>0.7212291615802425</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7619,13 +7619,13 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.446696771043247</v>
+        <v>0.04553975775328204</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.7212291615802425</v>
+        <v>0.2309575473144007</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7633,13 +7633,13 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.04553975775328204</v>
+        <v>0.3231296692776132</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.2309575473144007</v>
+        <v>0.6738401230967292</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7647,13 +7647,13 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.3231296692776132</v>
+        <v>0.4410418581867702</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.6738401230967292</v>
+        <v>0.7202286686036925</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7661,13 +7661,13 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4410418581867702</v>
+        <v>1.444337520455012E-07</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>4.477446313410536E-05</v>
       </c>
       <c r="D73">
-        <v>0.7202286686036925</v>
+        <v>2.798403945881585E-06</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7675,13 +7675,13 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>1.444337520455012E-07</v>
+        <v>9.282247946910462E-47</v>
       </c>
       <c r="C74">
-        <v>4.477446313410536E-05</v>
+        <v>2.877496863542243E-44</v>
       </c>
       <c r="D74">
-        <v>2.798403945881585E-06</v>
+        <v>2.877496863542243E-44</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7689,13 +7689,13 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>9.282247946910462E-47</v>
+        <v>0.001602737062724625</v>
       </c>
       <c r="C75">
-        <v>2.877496863542243E-44</v>
+        <v>0.4968484894446337</v>
       </c>
       <c r="D75">
-        <v>2.877496863542243E-44</v>
+        <v>0.01878203354904375</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7703,13 +7703,13 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.001602737062724625</v>
+        <v>0.008475002591042596</v>
       </c>
       <c r="C76">
-        <v>0.4968484894446337</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>0.01878203354904375</v>
+        <v>0.06975538315442842</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7717,13 +7717,13 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.008475002591042596</v>
+        <v>0.001114704605592346</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.3455584277336272</v>
       </c>
       <c r="D77">
-        <v>0.06796678358636615</v>
+        <v>0.01439826782223447</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7731,13 +7731,13 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.001114704605592346</v>
+        <v>9.05424895030469E-06</v>
       </c>
       <c r="C78">
-        <v>0.3455584277336272</v>
+        <v>0.002806817174594454</v>
       </c>
       <c r="D78">
-        <v>0.01439826782223447</v>
+        <v>0.0001477272197154976</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7745,13 +7745,13 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>9.05424895030469E-06</v>
+        <v>0.00974587354209646</v>
       </c>
       <c r="C79">
-        <v>0.002806817174594454</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0.0001477272197154976</v>
+        <v>0.07746719994999751</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7759,13 +7759,13 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00974587354209646</v>
+        <v>0.04409398511465958</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.07553051995124757</v>
+        <v>0.2278189230924078</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7773,13 +7773,13 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04409398511465958</v>
+        <v>1.894844471293273E-16</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5.874017861009147E-14</v>
       </c>
       <c r="D81">
-        <v>0.2278189230924078</v>
+        <v>7.342522326261434E-15</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7787,13 +7787,13 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>1.894844471293273E-16</v>
+        <v>7.548610581113437E-06</v>
       </c>
       <c r="C82">
-        <v>5.874017861009147E-14</v>
+        <v>0.002340069280145165</v>
       </c>
       <c r="D82">
-        <v>7.342522326261434E-15</v>
+        <v>0.0001300038488969536</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7801,13 +7801,13 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>7.548610581113437E-06</v>
+        <v>0.002486139529529837</v>
       </c>
       <c r="C83">
-        <v>0.002340069280145165</v>
+        <v>0.7707032541542493</v>
       </c>
       <c r="D83">
-        <v>0.0001300038488969536</v>
+        <v>0.02569010847180831</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7815,13 +7815,13 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.002486139529529837</v>
+        <v>0.02585351816290988</v>
       </c>
       <c r="C84">
-        <v>0.7707032541542493</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0.02569010847180831</v>
+        <v>0.1635630740918788</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7829,13 +7829,13 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.02585351816290988</v>
+        <v>0.920716150537946</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.1635630740918788</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7843,13 +7843,13 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.920716150537946</v>
+        <v>0.04694520264125409</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.9753567666754299</v>
+        <v>0.2310002034728376</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7857,13 +7857,13 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04694520264125409</v>
+        <v>0.08174185942844417</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.2310002034728376</v>
+        <v>0.3207591952255404</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7871,13 +7871,13 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.08174185942844417</v>
+        <v>0.04916752875396094</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.3167497052852212</v>
+        <v>0.2381552174019983</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7885,13 +7885,13 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.04916752875396094</v>
+        <v>0.2025176231663653</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.2381552174019983</v>
+        <v>0.5320378235726547</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7899,13 +7899,13 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.2025176231663653</v>
+        <v>0.9662888411524462</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.5320378235726547</v>
+        <v>0.9886123457335257</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7913,13 +7913,13 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.9662888411524462</v>
+        <v>0.01911431184397315</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.9918858965472129</v>
+        <v>0.1275210570777152</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7927,13 +7927,13 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.01911431184397315</v>
+        <v>0.3322619314524712</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.1275210570777152</v>
+        <v>0.6738401230967292</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7941,13 +7941,13 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.3322619314524712</v>
+        <v>0.1026780158242537</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.6738401230967292</v>
+        <v>0.3658641943163063</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7955,13 +7955,13 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1026780158242537</v>
+        <v>0.5981191726941084</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.3617066466536211</v>
+        <v>0.8017819063948022</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7969,13 +7969,13 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.5981191726941084</v>
+        <v>0.2469092264883734</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.8017819063948022</v>
+        <v>0.5896218101340779</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7983,13 +7983,13 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.2469092264883734</v>
+        <v>0.3573592456192857</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0.5896218101340779</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7997,13 +7997,13 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.3573592456192857</v>
+        <v>0.9988569242665084</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0.6916448197390557</v>
+        <v>0.9988569242665084</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8011,13 +8011,13 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.9988569242665084</v>
+        <v>0.696367148102967</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.9988569242665084</v>
+        <v>0.8532561893751769</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8025,13 +8025,13 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.696367148102967</v>
+        <v>0.02024794210016992</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.8532561893751769</v>
+        <v>0.1307679593969308</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8039,13 +8039,13 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.02024794210016992</v>
+        <v>0.0343105112499391</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0.1307679593969308</v>
+        <v>0.1933865179542022</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8053,13 +8053,13 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0343105112499391</v>
+        <v>0.1161190638891721</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0.1933865179542022</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8067,13 +8067,13 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1161190638891721</v>
+        <v>0.002664465690732138</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.8259843641269629</v>
       </c>
       <c r="D102">
-        <v>0.4024832041252195</v>
+        <v>0.02610721565677891</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8081,13 +8081,13 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>0.002664465690732138</v>
+        <v>0.8093253944980521</v>
       </c>
       <c r="C103">
-        <v>0.8259843641269629</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0.02610721565677891</v>
+        <v>0.918476984553605</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8095,13 +8095,13 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>0.8093253944980521</v>
+        <v>0.2252999061811732</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.918476984553605</v>
+        <v>0.5587437673293096</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>0.2252999061811732</v>
+        <v>0.002195559410048322</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.6806234171149799</v>
       </c>
       <c r="D105">
-        <v>0.5587437673293096</v>
+        <v>0.02400608285945541</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.002195559410048322</v>
+        <v>0.04382862137010275</v>
       </c>
       <c r="C106">
-        <v>0.6806234171149799</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0.02400608285945541</v>
+        <v>0.2278189230924078</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8137,13 +8137,13 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>0.04382862137010275</v>
+        <v>0.001109933773384662</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.3440794697492452</v>
       </c>
       <c r="D107">
-        <v>0.2278189230924078</v>
+        <v>0.01439826782223447</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8151,13 +8151,13 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>0.001109933773384662</v>
+        <v>0.4925847792983649</v>
       </c>
       <c r="C108">
-        <v>0.3440794697492452</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>0.01439826782223447</v>
+        <v>0.7673431235301161</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8165,13 +8165,13 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.4925847792983649</v>
+        <v>0.8155674457345419</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.7673431235301161</v>
+        <v>0.919366938828029</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8179,13 +8179,13 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>0.8155674457345419</v>
+        <v>0.786983346292389</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.919366938828029</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8193,13 +8193,13 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0.786983346292389</v>
+        <v>0.706283600416283</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.9103165572785097</v>
+        <v>0.8586192789374421</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8207,13 +8207,13 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.706283600416283</v>
+        <v>0.8862698335291233</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.8586192789374421</v>
+        <v>0.9529640400105407</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8221,13 +8221,13 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>0.8862698335291233</v>
+        <v>0.2198733166582952</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0.9562614934361827</v>
+        <v>0.5514038409895627</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8235,13 +8235,13 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>0.2198733166582952</v>
+        <v>0.517397271262402</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>0.5514038409895627</v>
+        <v>0.7786075441327408</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8249,13 +8249,13 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>0.517397271262402</v>
+        <v>0.839728447931697</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0.7786075441327408</v>
+        <v>0.9296993530672359</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8263,13 +8263,13 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>0.9811755891348029</v>
+        <v>0.9497709239399644</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.9950405762873229</v>
+        <v>0.979714924169052</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8277,13 +8277,13 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>0.9497709239399644</v>
+        <v>0.02751369266730697</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.9829806405829489</v>
+        <v>0.1705848945373032</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8291,13 +8291,13 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.02751369266730697</v>
+        <v>0.8821330505654335</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0.1705848945373032</v>
+        <v>0.9529640400105407</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8305,13 +8305,13 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>0.8821330505654335</v>
+        <v>0.5406017059969253</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0.9562614934361827</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8319,13 +8319,13 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>0.5406017059969253</v>
+        <v>0.3721561506300242</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.7831286380023261</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8333,13 +8333,13 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>0.3721561506300242</v>
+        <v>0.7678586304307584</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>0.6920025317090821</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8347,13 +8347,13 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>0.7678586304307584</v>
+        <v>0.5619214580322627</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.9103165572785097</v>
+        <v>0.7882156198642599</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8361,13 +8361,13 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>0.5619214580322627</v>
+        <v>0.08398960247705141</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.7882156198642599</v>
+        <v>0.3225115897034607</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8375,13 +8375,13 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.08398960247705141</v>
+        <v>0.6757741786935443</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.3185785215363453</v>
+        <v>0.8346214955976045</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8389,13 +8389,13 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>0.6757741786935443</v>
+        <v>0.575605590117809</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>0.8346214955976045</v>
+        <v>0.7965970220380393</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8403,13 +8403,13 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>0.575605590117809</v>
+        <v>0.9167114193215768</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0.7965970220380393</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8417,13 +8417,13 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.9167114193215768</v>
+        <v>0.6653365354097045</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>0.9753567666754299</v>
+        <v>0.830409845438953</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8431,13 +8431,13 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>0.6653365354097045</v>
+        <v>0.7053574381336143</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>0.830409845438953</v>
+        <v>0.8586192789374421</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8445,13 +8445,13 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>0.7053574381336143</v>
+        <v>1.760443645265757E-07</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>5.457375300323848E-05</v>
       </c>
       <c r="D129">
-        <v>0.8586192789374421</v>
+        <v>3.210220764896381E-06</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8459,13 +8459,13 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>1.760443645265757E-07</v>
+        <v>0.4883040081697639</v>
       </c>
       <c r="C130">
-        <v>5.457375300323848E-05</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>3.210220764896381E-06</v>
+        <v>0.7645163764274082</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8473,13 +8473,13 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>0.4883040081697639</v>
+        <v>0.8619522426780986</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.7645163764274082</v>
+        <v>0.9407757491265406</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8487,13 +8487,13 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>0.8619522426780986</v>
+        <v>0.3568156089661956</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0.9440883397924791</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8501,13 +8501,13 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.3568156089661956</v>
+        <v>0.04619150946288014</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.6916448197390557</v>
+        <v>0.2309575473144007</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8515,13 +8515,13 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>0.04619150946288014</v>
+        <v>0.3645521956059563</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>0.2309575473144007</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8529,7 +8529,7 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>0.3645521956059563</v>
+        <v>0.3544024221648192</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -8543,13 +8543,13 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.3544024221648192</v>
+        <v>0.005926492499103674</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0.6916448197390557</v>
+        <v>0.05249179070634683</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8557,13 +8557,13 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>0.005926492499103674</v>
+        <v>0.727442225368822</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0.05249179070634683</v>
+        <v>0.8706837446499414</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8571,13 +8571,13 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>0.727442225368822</v>
+        <v>0.05814962752202476</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.8706837446499414</v>
+        <v>0.2612316871296787</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8585,13 +8585,13 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.05814962752202476</v>
+        <v>0.08965157681379977</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.2612316871296787</v>
+        <v>0.3389266928326577</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8599,13 +8599,13 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>0.08965157681379977</v>
+        <v>0.4958048171469925</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.3348432387021437</v>
+        <v>0.7684974665778385</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8613,13 +8613,13 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>0.4958048171469925</v>
+        <v>0.7176617380036593</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.7684974665778385</v>
+        <v>0.8656620186036358</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8627,13 +8627,13 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.7176617380036593</v>
+        <v>0.5146282720778381</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.8656620186036358</v>
+        <v>0.7782183626542918</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8641,13 +8641,13 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>0.5146282720778381</v>
+        <v>0.4329243580513171</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.7782183626542918</v>
+        <v>0.7138646329569591</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8655,13 +8655,13 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>0.4329243580513171</v>
+        <v>0.03209510972828358</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.7138646329569591</v>
+        <v>0.1884564169632032</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8669,13 +8669,13 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.03209510972828358</v>
+        <v>0.5825361596205081</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.1884564169632032</v>
+        <v>0.7973365269466438</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8683,13 +8683,13 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>0.5825361596205081</v>
+        <v>0.9929306773460879</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.7973365269466438</v>
+        <v>0.9988569242665084</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8697,13 +8697,13 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>0.9929306773460879</v>
+        <v>0.6378049524658953</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.9988569242665084</v>
+        <v>0.8244741017590741</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8711,13 +8711,13 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.6378049524658953</v>
+        <v>0.2583101721892331</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0.8244741017590741</v>
+        <v>0.60223182959857</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8725,13 +8725,13 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>0.2583101721892331</v>
+        <v>0.9703669258578814</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0.60223182959857</v>
+        <v>0.9895189046577081</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8739,13 +8739,13 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>0.9703669258578814</v>
+        <v>0.715954396669886</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.9927846436169744</v>
+        <v>0.8656620186036358</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8753,13 +8753,13 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.715954396669886</v>
+        <v>0.661178958719869</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.8656620186036358</v>
+        <v>0.8298197457617789</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8767,13 +8767,13 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>0.661178958719869</v>
+        <v>0.9369001172642446</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.8298197457617789</v>
+        <v>0.9742766094538835</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8781,13 +8781,13 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>0.9369001172642446</v>
+        <v>0.3659024207651779</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.9775459940493664</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8795,13 +8795,13 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.3659024207651779</v>
+        <v>0.1023163795937319</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>0.6916448197390557</v>
+        <v>0.3658641943163063</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8809,13 +8809,13 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>0.1023163795937319</v>
+        <v>0.06067316604302215</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>0.3617066466536211</v>
+        <v>0.2612316871296787</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8823,13 +8823,13 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>0.06067316604302215</v>
+        <v>0.000876739874115286</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.2717893609757386</v>
       </c>
       <c r="D156">
-        <v>0.2612316871296787</v>
+        <v>0.01235406186253358</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8837,13 +8837,13 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.000876739874115286</v>
+        <v>0.6383025303941219</v>
       </c>
       <c r="C157">
-        <v>0.2717893609757386</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>0.01235406186253358</v>
+        <v>0.8244741017590741</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8851,13 +8851,13 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>0.6383025303941219</v>
+        <v>0.0795685241687782</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>0.8244741017590741</v>
+        <v>0.3168662029595391</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8865,13 +8865,13 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>0.0795685241687782</v>
+        <v>0.01007698828777428</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.3128552383651145</v>
+        <v>0.07809665923025071</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8879,13 +8879,13 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.01007698828777428</v>
+        <v>0.4039113764277334</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0.07619186266365921</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8893,7 +8893,7 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>0.4039113764277334</v>
+        <v>0.3931700886440986</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -8907,13 +8907,13 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>0.3931700886440986</v>
+        <v>0.1444746458427123</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>0.6920025317090821</v>
+        <v>0.4529278869147521</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8921,13 +8921,13 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.1444746458427123</v>
+        <v>0.1273805140609633</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>0.4529278869147521</v>
+        <v>0.4156627300936698</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8935,13 +8935,13 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>0.1273805140609633</v>
+        <v>0.2834192001380693</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.4156627300936698</v>
+        <v>0.622860882396816</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8949,13 +8949,13 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>0.2834192001380693</v>
+        <v>0.3549559841461907</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.622860882396816</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8963,13 +8963,13 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>0.3549559841461907</v>
+        <v>0.30958773240922</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.6916448197390557</v>
+        <v>0.6618772210128152</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8977,13 +8977,13 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>0.30958773240922</v>
+        <v>0.5063838904795281</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.6618772210128152</v>
+        <v>0.7754009235451075</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8991,13 +8991,13 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>0.5063838904795281</v>
+        <v>0.6307745325085912</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0.7754009235451075</v>
+        <v>0.8244741017590741</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -9005,13 +9005,13 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>0.6307745325085912</v>
+        <v>0.1728095342343878</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.8244741017590741</v>
+        <v>0.5046859048870673</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9019,13 +9019,13 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>0.1728095342343878</v>
+        <v>0.8875352957372066</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.5000128872492241</v>
+        <v>0.9529640400105407</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9033,13 +9033,13 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>0.8875352957372066</v>
+        <v>0.008550659870542838</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.9562614934361827</v>
+        <v>0.06975538315442842</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9047,13 +9047,13 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>0.008550659870542838</v>
+        <v>0.7862356682217243</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>0.06796678358636615</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9061,13 +9061,13 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>0.7862356682217243</v>
+        <v>1.832259048791946E-19</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>5.680003051255032E-17</v>
       </c>
       <c r="D173">
-        <v>0.9103165572785097</v>
+        <v>8.114290073221475E-18</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9075,13 +9075,13 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>1.832259048791946E-19</v>
+        <v>0.3841235113422222</v>
       </c>
       <c r="C174">
-        <v>5.680003051255032E-17</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>8.114290073221475E-18</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9089,13 +9089,13 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>0.3841235113422222</v>
+        <v>0.002245730332013571</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0.6961764029242069</v>
       </c>
       <c r="D175">
-        <v>0.6920025317090821</v>
+        <v>0.02400608285945541</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9103,13 +9103,13 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>0.002245730332013571</v>
+        <v>0.2293714789637908</v>
       </c>
       <c r="C176">
-        <v>0.6961764029242069</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>0.02400608285945541</v>
+        <v>0.5643266545934537</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9117,13 +9117,13 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>0.2293714789637908</v>
+        <v>3.783133565712139E-10</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>1.172771405370763E-07</v>
       </c>
       <c r="D177">
-        <v>0.5643266545934537</v>
+        <v>8.376938609791166E-09</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9131,13 +9131,13 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>3.783133565712139E-10</v>
+        <v>0.4311935645449454</v>
       </c>
       <c r="C178">
-        <v>1.172771405370763E-07</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>8.376938609791166E-09</v>
+        <v>0.7138646329569591</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9145,13 +9145,13 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>0.4311935645449454</v>
+        <v>0.5964337270974394</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>0.7138646329569591</v>
+        <v>0.8017819063948022</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9159,13 +9159,13 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>0.5964337270974394</v>
+        <v>0.3623646449527871</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>0.8017819063948022</v>
+        <v>0.6916448197390557</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9173,13 +9173,13 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>0.3623646449527871</v>
+        <v>0.3951867936197105</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>0.6916448197390557</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9187,13 +9187,13 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>0.3951867936197105</v>
+        <v>0.7836027205165144</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.6920025317090821</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9201,13 +9201,13 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>0.7836027205165144</v>
+        <v>0.9281620844169414</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>0.9103165572785097</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9215,13 +9215,13 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>0.9281620844169414</v>
+        <v>0.8900292932226704</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0.9753567666754299</v>
+        <v>0.9529640400105407</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9229,13 +9229,13 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>0.8900292932226704</v>
+        <v>0.6074321128130105</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>0.9562614934361827</v>
+        <v>0.8047177562907403</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9243,13 +9243,13 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>0.6074321128130105</v>
+        <v>0.09367461686026668</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.8047177562907403</v>
+        <v>0.3417800365499833</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9257,13 +9257,13 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>0.09367461686026668</v>
+        <v>0.9967922161108779</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.3378058500784719</v>
+        <v>0.9988569242665084</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9271,13 +9271,13 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>0.9967922161108779</v>
+        <v>0.7800187555458887</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>0.9988569242665084</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9285,13 +9285,13 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>0.7800187555458887</v>
+        <v>0.5886275627507728</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.9103165572785097</v>
+        <v>0.7973365269466438</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9299,13 +9299,13 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>0.5886275627507728</v>
+        <v>0.2116119615772911</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>0.7973365269466438</v>
+        <v>0.5377025253193463</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9313,13 +9313,13 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>0.2116119615772911</v>
+        <v>0.3369200615483646</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0.5377025253193463</v>
+        <v>0.6738401230967292</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9327,13 +9327,13 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>0.3369200615483646</v>
+        <v>0.07353224502431469</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0.6738401230967292</v>
+        <v>0.2999341573360205</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9341,13 +9341,13 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>0.07353224502431469</v>
+        <v>0.7834421662058217</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0.2960389085394488</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9355,13 +9355,13 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>0.7834421662058217</v>
+        <v>0.4581649193409275</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>0.9103165572785097</v>
+        <v>0.735912564744495</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9369,13 +9369,13 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>0.4581649193409275</v>
+        <v>0.5473330812454601</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>0.735912564744495</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9383,13 +9383,13 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>0.5473330812454601</v>
+        <v>0.7750445118864053</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.7831286380023261</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9397,13 +9397,13 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>0.7750445118864053</v>
+        <v>0.1800334623901836</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0.9103165572785097</v>
+        <v>0.5120217737702468</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9411,13 +9411,13 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>0.1800334623901836</v>
+        <v>0.1682330976929338</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.5073670303723355</v>
+        <v>0.5014640412000911</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9425,13 +9425,13 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>0.1682330976929338</v>
+        <v>0.9741165087400717</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>0.4966881931886618</v>
+        <v>0.9900856318341712</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9439,13 +9439,13 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>0.9741165087400717</v>
+        <v>0.8084658264136827</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>0.9933424924652048</v>
+        <v>0.918476984553605</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9453,13 +9453,13 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>0.8084658264136827</v>
+        <v>0.9274091449241748</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>0.918476984553605</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9467,13 +9467,13 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>0.9274091449241748</v>
+        <v>0.3791376897928648</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>0.9753567666754299</v>
+        <v>0.6920025317090821</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9481,13 +9481,13 @@
         <v>206</v>
       </c>
       <c r="B203">
-        <v>0.3791376897928648</v>
+        <v>0.7848695672201658</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.6920025317090821</v>
+        <v>0.9103165572785097</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9495,13 +9495,13 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>0.7848695672201658</v>
+        <v>0.589000208615424</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>0.9103165572785097</v>
+        <v>0.7973365269466438</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -9509,13 +9509,13 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>0.589000208615424</v>
+        <v>0.7242224251870926</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>0.7973365269466438</v>
+        <v>0.8701897356899174</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -9523,13 +9523,13 @@
         <v>209</v>
       </c>
       <c r="B206">
-        <v>0.7242224251870926</v>
+        <v>0.6361699700339944</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.8701897356899174</v>
+        <v>0.8244741017590741</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9537,13 +9537,13 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>0.6361699700339944</v>
+        <v>0.5107568805254192</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.8244741017590741</v>
+        <v>0.7761501615827449</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9551,13 +9551,13 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>0.5107568805254192</v>
+        <v>0.9512715876609182</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>0.7761501615827449</v>
+        <v>0.979714924169052</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9565,13 +9565,13 @@
         <v>212</v>
       </c>
       <c r="B209">
-        <v>0.9512715876609182</v>
+        <v>0.03673164685909671</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>0.9829806405829489</v>
+        <v>0.2033359022557139</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9579,13 +9579,13 @@
         <v>213</v>
       </c>
       <c r="B210">
-        <v>0.03673164685909671</v>
+        <v>1.357452253353955E-12</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4.208101985397261E-10</v>
       </c>
       <c r="D210">
-        <v>0.2033359022557139</v>
+        <v>3.506751654497718E-11</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9593,13 +9593,13 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>1.357452253353955E-12</v>
+        <v>0.3013030904983715</v>
       </c>
       <c r="C211">
-        <v>4.208101985397261E-10</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>3.506751654497718E-11</v>
+        <v>0.6486385976006608</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9607,13 +9607,13 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>0.3013030904983715</v>
+        <v>0.545474878404048</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>0.6486385976006608</v>
+        <v>0.7831286380023261</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -9621,13 +9621,13 @@
         <v>216</v>
       </c>
       <c r="B213">
-        <v>0.545474878404048</v>
+        <v>0.8531312382921302</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0.7831286380023261</v>
+        <v>0.9378393045055332</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -9635,13 +9635,13 @@
         <v>217</v>
       </c>
       <c r="B214">
-        <v>0.8531312382921302</v>
+        <v>0.1219986970946984</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>0.941176810927261</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -9711,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>0.9440883397924791</v>
+        <v>0.9407757491265406</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>0.5058720981987552</v>
+        <v>0.5105560991080029</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>0.9753567666754299</v>
+        <v>0.9720616424636886</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>0.9562614934361827</v>
+        <v>0.9529640400105407</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>0.3185785215363453</v>
+        <v>0.3225115897034607</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0.3128552383651145</v>
+        <v>0.3168662029595391</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -10229,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.5000128872492241</v>
+        <v>0.5046859048870673</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>0.4029436133472059</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>0.2885797680730423</v>
+        <v>0.2924794946686239</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>0.9317913493235959</v>
+        <v>0.9296993530672359</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.4024832041252195</v>
+        <v>0.4046957308739862</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>0.4752145385917392</v>
+        <v>0.4798282719761251</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>0.9885370302534078</v>
+        <v>0.9852637288287275</v>
       </c>
     </row>
     <row r="308" spans="1:4">
